--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/200000003199</t>
+    <t>https://spor.ema.europa.eu/v1/lists/200000003199</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
+++ b/branches/mpd-r4b/CodeSystem-material-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
